--- a/旅行/汕头.xlsx
+++ b/旅行/汕头.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>日期</t>
   </si>
@@ -40,7 +40,20 @@
     <t>上午</t>
   </si>
   <si>
-    <t>厦门站-&gt;汕头站</t>
+    <r>
+      <t>厦门站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-&gt;汕头站</t>
+    </r>
+  </si>
+  <si>
+    <t>11:56～14:18</t>
   </si>
   <si>
     <t>动车</t>
@@ -100,6 +113,9 @@
     <t>营业时间：凌晨2:00 菜品：猪肉粿条｜粉</t>
   </si>
   <si>
+    <t>住宿：汕头晶玺酒店</t>
+  </si>
+  <si>
     <t>2023.06.24</t>
   </si>
   <si>
@@ -121,7 +137,20 @@
     <t>潮陈记土鸡火锅</t>
   </si>
   <si>
-    <t>汕头站-&gt;厦门站</t>
+    <r>
+      <t>汕头站-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厦门站</t>
+    </r>
+  </si>
+  <si>
+    <t>17:58～19:47</t>
   </si>
 </sst>
 </file>
@@ -134,10 +163,25 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -592,159 +636,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -752,6 +796,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1072,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1104,7 +1157,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1115,150 +1168,147 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1271,40 +1321,56 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>34</v>
       </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
